--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>787392.8259215793</v>
+        <v>784957.1889978726</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673428</v>
+        <v>603248.493767344</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>64.43856447801397</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +674,10 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>246.1225519222235</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,25 +817,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>131.7557716952372</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>262.4033500842934</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>299.5215209693911</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>11.56325967097319</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>87.34245228679255</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>118.2708408728599</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,13 +1136,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>335.7896341621523</v>
+        <v>20.92365879439145</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>69.60662835550704</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>139.1894753224703</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,19 +1376,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>3.171820953548113</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806772</v>
+        <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22.60777203238047</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114088</v>
+        <v>97.97552699114112</v>
       </c>
       <c r="T11" t="n">
-        <v>93.01547602483647</v>
+        <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458122</v>
+        <v>87.05432226458127</v>
       </c>
       <c r="I12" t="n">
-        <v>9.75316679403511</v>
+        <v>9.753166794035309</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.2535382468619</v>
+        <v>123.253538246862</v>
       </c>
       <c r="T12" t="n">
         <v>189.655441187015</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>124.1004521009499</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.7150774703403</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146327</v>
+        <v>79.00824149146349</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076761</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
         <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1997994941144</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>179.222847856917</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754684</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>319.4395745411779</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1771,13 +1771,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>81.37259901119295</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
@@ -1819,7 +1819,7 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>203.0513939930667</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560526</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182158</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>99.76189317294829</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.272891771007</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187857</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2245,13 +2245,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>99.9742741983369</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012355</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,16 +2293,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>281.6778446725219</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890404</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2485,10 +2485,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>19.91555826189378</v>
       </c>
       <c r="S25" t="n">
-        <v>142.1343012721633</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272841</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>3.006892987835017</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826189153</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520925</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>120.7871326503955</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389245</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>95.77623638693868</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,13 +3193,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>99.9742741983388</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>174.9868265178716</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,10 +3430,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>20.92847288552831</v>
+        <v>99.97427419833875</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3664,16 +3664,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699817</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3724,10 +3724,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.2646806878223</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881277</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3904,16 +3904,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>20.92847288552909</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>109.8058856274573</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833883</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>20.66101211579002</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1506.36381994936</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C2" t="n">
-        <v>1137.401303008948</v>
+        <v>939.4077790033357</v>
       </c>
       <c r="D2" t="n">
-        <v>779.1356044021979</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E2" t="n">
-        <v>779.1356044021979</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F2" t="n">
-        <v>368.1496996125904</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G2" t="n">
-        <v>357.1176534979909</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4340,7 +4340,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4361,19 +4361,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520488</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2656.568750250373</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2283.102991989294</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1892.963660013482</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4383,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
         <v>1685.951113992584</v>
@@ -4425,34 +4425,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>945.3964936596652</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="C4" t="n">
-        <v>776.4603107317583</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="D4" t="n">
-        <v>626.3436713194226</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1735.608663915319</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1602.522025839322</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1347.837537633435</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W4" t="n">
-        <v>1347.837537633435</v>
+        <v>615.1703471880954</v>
       </c>
       <c r="X4" t="n">
-        <v>1347.837537633435</v>
+        <v>615.1703471880954</v>
       </c>
       <c r="Y4" t="n">
-        <v>1127.044958489905</v>
+        <v>394.3777680445653</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1537.086630593157</v>
+        <v>1892.963660013482</v>
       </c>
       <c r="C5" t="n">
-        <v>1168.124113652745</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
-        <v>809.8584150459947</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>424.0701624477504</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,55 +4562,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520486</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520486</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176915</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906801</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X5" t="n">
-        <v>2313.82580263309</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y5" t="n">
-        <v>1923.686470657279</v>
+        <v>1892.963660013482</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4620,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
         <v>2096.912393410638</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>530.2513404403937</v>
+        <v>651.920382101508</v>
       </c>
       <c r="C7" t="n">
-        <v>361.3151575124868</v>
+        <v>482.9841991736012</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124868</v>
+        <v>332.8675597612654</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300937</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.67533979849</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1356.67533979849</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W7" t="n">
-        <v>1067.25816976153</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X7" t="n">
-        <v>839.2686188635123</v>
+        <v>651.920382101508</v>
       </c>
       <c r="Y7" t="n">
-        <v>618.4760397199822</v>
+        <v>651.920382101508</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1689.318139675982</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1320.35562273557</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
         <v>523.5814653477182</v>
@@ -4811,7 +4811,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993393</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.565186649822</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2449.383738001183</v>
+        <v>2403.60903256753</v>
       </c>
       <c r="X8" t="n">
-        <v>2075.917979740103</v>
+        <v>2030.14327430645</v>
       </c>
       <c r="Y8" t="n">
-        <v>2075.917979740103</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>777.020896318616</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C10" t="n">
-        <v>608.0847133907091</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="D10" t="n">
-        <v>457.9680739783734</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>136.8218420438067</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1837.464090846021</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1696.868661227364</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>1407.451491190403</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X10" t="n">
-        <v>1179.461940292386</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y10" t="n">
-        <v>958.6693611488557</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1898.596633253256</v>
+        <v>1535.258832689346</v>
       </c>
       <c r="C11" t="n">
-        <v>1529.634116312845</v>
+        <v>1166.296315748934</v>
       </c>
       <c r="D11" t="n">
-        <v>1171.368417706095</v>
+        <v>808.0306171421839</v>
       </c>
       <c r="E11" t="n">
-        <v>785.5801651078502</v>
+        <v>804.8267575931455</v>
       </c>
       <c r="F11" t="n">
-        <v>785.5801651078502</v>
+        <v>393.840852803538</v>
       </c>
       <c r="G11" t="n">
-        <v>371.0047194374972</v>
+        <v>393.840852803538</v>
       </c>
       <c r="H11" t="n">
-        <v>78.51106622469197</v>
+        <v>101.3471995907326</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469197</v>
+        <v>78.51106622469173</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386838</v>
+        <v>308.7333971386834</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420335</v>
+        <v>704.515510442031</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301227</v>
+        <v>1232.419981301223</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878113</v>
+        <v>1851.484858878107</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765429</v>
+        <v>2485.180661765421</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687107</v>
+        <v>3070.226377687097</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.04835985629</v>
+        <v>3535.048359856278</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882248</v>
+        <v>3835.937563882235</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234598</v>
+        <v>3925.553311234587</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455668</v>
+        <v>3826.588132455656</v>
       </c>
       <c r="T11" t="n">
-        <v>3732.633106167955</v>
+        <v>3622.786021971436</v>
       </c>
       <c r="U11" t="n">
-        <v>3732.633106167955</v>
+        <v>3369.295305604044</v>
       </c>
       <c r="V11" t="n">
-        <v>3401.570218824384</v>
+        <v>3038.232418260473</v>
       </c>
       <c r="W11" t="n">
-        <v>3048.80156355427</v>
+        <v>2685.463762990359</v>
       </c>
       <c r="X11" t="n">
-        <v>2675.33580529319</v>
+        <v>2311.998004729279</v>
       </c>
       <c r="Y11" t="n">
-        <v>2285.196473317378</v>
+        <v>1921.858672753468</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>618.1656010111994</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9281460057439</v>
+        <v>458.928146005744</v>
       </c>
       <c r="F12" t="n">
         <v>312.3935880326289</v>
@@ -5112,31 +5112,31 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503047</v>
+        <v>88.36274985503043</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469197</v>
+        <v>78.51106622469173</v>
       </c>
       <c r="J12" t="n">
-        <v>120.7071536953206</v>
+        <v>196.8120623792125</v>
       </c>
       <c r="K12" t="n">
-        <v>401.0572235537585</v>
+        <v>477.1621322376495</v>
       </c>
       <c r="L12" t="n">
-        <v>824.3450309810689</v>
+        <v>900.4499396649587</v>
       </c>
       <c r="M12" t="n">
-        <v>1337.658805224959</v>
+        <v>977.3905023848095</v>
       </c>
       <c r="N12" t="n">
-        <v>1878.967112576027</v>
+        <v>1518.698809735876</v>
       </c>
       <c r="O12" t="n">
-        <v>2351.938665441777</v>
+        <v>1991.670362601624</v>
       </c>
       <c r="P12" t="n">
-        <v>2351.938665441777</v>
+        <v>2351.938665441778</v>
       </c>
       <c r="Q12" t="n">
         <v>2542.849288629729</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>782.9882200193193</v>
+        <v>203.8650582458534</v>
       </c>
       <c r="C13" t="n">
-        <v>614.0520370914124</v>
+        <v>78.51106622469173</v>
       </c>
       <c r="D13" t="n">
-        <v>463.9353976790766</v>
+        <v>78.51106622469173</v>
       </c>
       <c r="E13" t="n">
-        <v>316.0223040966835</v>
+        <v>78.51106622469173</v>
       </c>
       <c r="F13" t="n">
-        <v>169.1323565987731</v>
+        <v>78.51106622469173</v>
       </c>
       <c r="G13" t="n">
-        <v>169.1323565987731</v>
+        <v>78.51106622469173</v>
       </c>
       <c r="H13" t="n">
-        <v>169.1323565987731</v>
+        <v>78.51106622469173</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469197</v>
+        <v>78.51106622469173</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600403</v>
+        <v>139.0818334600397</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457712</v>
+        <v>368.4550473457698</v>
       </c>
       <c r="L13" t="n">
-        <v>717.500225288893</v>
+        <v>717.5002252888909</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779223</v>
+        <v>1095.90854877922</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542996</v>
+        <v>1470.753784542992</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715851</v>
+        <v>1800.967734715847</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082524</v>
+        <v>2060.002133082519</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551108</v>
+        <v>2155.909043551103</v>
       </c>
       <c r="R13" t="n">
-        <v>2076.102739014276</v>
+        <v>2076.102739014271</v>
       </c>
       <c r="S13" t="n">
-        <v>1888.302075370159</v>
+        <v>1888.302075370154</v>
       </c>
       <c r="T13" t="n">
-        <v>1667.488017920205</v>
+        <v>1667.4880179202</v>
       </c>
       <c r="U13" t="n">
-        <v>1667.488017920205</v>
+        <v>1378.397311360488</v>
       </c>
       <c r="V13" t="n">
-        <v>1412.803529714318</v>
+        <v>1123.712823154601</v>
       </c>
       <c r="W13" t="n">
-        <v>1231.770350060867</v>
+        <v>834.2956531176405</v>
       </c>
       <c r="X13" t="n">
-        <v>1003.780799162849</v>
+        <v>606.3061022196232</v>
       </c>
       <c r="Y13" t="n">
-        <v>782.9882200193193</v>
+        <v>385.5135230760931</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614635</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007884</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760437</v>
+        <v>1153.40847940964</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2220959708297</v>
+        <v>742.4225746200325</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872365</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251936</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128755</v>
+        <v>841.9378825128774</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.46222495769</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.91518802128</v>
+        <v>4150.915188021282</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070875</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750193</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469743</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.398533126172</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3416.629877856058</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5343,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608053</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="J15" t="n">
-        <v>240.4596049779265</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="K15" t="n">
-        <v>570.9683475412853</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="L15" t="n">
-        <v>570.9683475412853</v>
+        <v>525.8973588994244</v>
       </c>
       <c r="M15" t="n">
-        <v>1162.986701793413</v>
+        <v>1117.915713151552</v>
       </c>
       <c r="N15" t="n">
-        <v>1785.082665192749</v>
+        <v>1740.011676550888</v>
       </c>
       <c r="O15" t="n">
-        <v>1902.630837358917</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.214355784993</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>873.8816814720481</v>
+        <v>494.0589900220737</v>
       </c>
       <c r="C16" t="n">
-        <v>704.9454985441412</v>
+        <v>325.1228070941668</v>
       </c>
       <c r="D16" t="n">
-        <v>554.8288591318053</v>
+        <v>175.0061676818311</v>
       </c>
       <c r="E16" t="n">
-        <v>406.9157655494121</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="F16" t="n">
-        <v>260.0258180515017</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="G16" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156341</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861981</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693324</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
@@ -5458,28 +5458,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.205584149098</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T16" t="n">
-        <v>2025.52680186348</v>
+        <v>1957.667456821982</v>
       </c>
       <c r="U16" t="n">
-        <v>1820.424383688665</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1565.739895482778</v>
+        <v>1413.906754930822</v>
       </c>
       <c r="W16" t="n">
-        <v>1276.322725445818</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X16" t="n">
-        <v>1276.322725445818</v>
+        <v>896.5000339958435</v>
       </c>
       <c r="Y16" t="n">
-        <v>1055.530146302288</v>
+        <v>675.7074548523134</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5504,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5540,19 +5540,19 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591808</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961522</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1337.934786622704</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>800.5007694647277</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C19" t="n">
-        <v>800.5007694647277</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D19" t="n">
-        <v>650.3841300523884</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5683,10 +5683,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5729,31 @@
         <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,10 +5762,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5777,10 +5777,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466572</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>95.584050252739</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>95.584050252739</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>95.584050252739</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438179</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400701</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121632</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998273</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797745</v>
@@ -5920,40 +5920,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U22" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625429</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138399</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703098</v>
       </c>
     </row>
     <row r="23">
@@ -5966,37 +5966,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
@@ -6011,25 +6011,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,10 +6060,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803938</v>
@@ -6072,22 +6072,22 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1804.131916132773</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>560.7825789706073</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>391.8463960427005</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>241.7297566303648</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2426.846358063196</v>
       </c>
       <c r="S25" t="n">
-        <v>2303.393082295247</v>
+        <v>2243.9915237181</v>
       </c>
       <c r="T25" t="n">
-        <v>2083.791617318188</v>
+        <v>2024.390058741044</v>
       </c>
       <c r="U25" t="n">
-        <v>1794.716390662386</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>963.2236229443772</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>742.4310438008471</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6203,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>562.8579153358619</v>
       </c>
       <c r="L27" t="n">
-        <v>710.248605371872</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.627092998424</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6364,43 +6364,43 @@
         <v>411.9631215597628</v>
       </c>
       <c r="D28" t="n">
-        <v>408.925855915485</v>
+        <v>261.8464821474271</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>113.933388565034</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>113.933388565034</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797748</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
         <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.963083580261</v>
@@ -6409,22 +6409,22 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235166</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258107</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602305</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396418</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359457</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614396</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y28" t="n">
         <v>762.5477693179095</v>
@@ -6452,7 +6452,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6461,22 +6461,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6503,7 +6503,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.913939313768</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>637.9025067654818</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C31" t="n">
-        <v>637.9025067654818</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851784</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K31" t="n">
         <v>435.7419440038343</v>
@@ -6631,7 +6631,7 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
         <v>2035.089393279803</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138414</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y31" t="n">
-        <v>819.5509715957215</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M33" t="n">
-        <v>1337.934786622704</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.868625753638</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257311</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133953</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6859,49 +6859,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1867.752414038033</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1613.067925832146</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1323.650755795185</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1095.661204897168</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y34" t="n">
-        <v>874.868625753638</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="35">
@@ -6926,31 +6926,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516142</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1176.533952578166</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N36" t="n">
-        <v>1804.131916132773</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O36" t="n">
-        <v>2356.04164637206</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P36" t="n">
-        <v>2356.04164637206</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.917417812165</v>
       </c>
       <c r="D37" t="n">
-        <v>261.8464821474262</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7108,37 +7108,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="38">
@@ -7163,28 +7163,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111707</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.868625753638</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>197.0043242297713</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>197.0043242297714</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7351,31 +7351,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7403,19 +7403,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7424,34 +7424,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273902</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273902</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M42" t="n">
-        <v>692.9625378792909</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
-        <v>1320.560501433898</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>985.783661740969</v>
+        <v>580.8993044876695</v>
       </c>
       <c r="C43" t="n">
-        <v>816.8474788130621</v>
+        <v>411.9631215597625</v>
       </c>
       <c r="D43" t="n">
-        <v>666.7308394007264</v>
+        <v>261.8464821474267</v>
       </c>
       <c r="E43" t="n">
-        <v>518.8177458183333</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F43" t="n">
-        <v>371.9277983204229</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G43" t="n">
-        <v>204.7316990353025</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>2160.315914855604</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1905.631426649717</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1616.214256612756</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X43" t="n">
-        <v>1388.224705714739</v>
+        <v>983.3403484614394</v>
       </c>
       <c r="Y43" t="n">
-        <v>1167.432126571209</v>
+        <v>762.5477693179092</v>
       </c>
     </row>
     <row r="44">
@@ -7643,25 +7643,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111704</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1320.560501433898</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C46" t="n">
-        <v>788.0191461778176</v>
+        <v>344.917417812165</v>
       </c>
       <c r="D46" t="n">
-        <v>637.9025067654818</v>
+        <v>194.8007783998293</v>
       </c>
       <c r="E46" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998293</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7810,7 +7810,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7819,37 +7819,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1190.460190151587</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>969.6676110080573</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>378.7585491187137</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238004</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>108.7486133545414</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9558092037176</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>43.14636899767797</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.8050985482227</v>
@@ -23434,7 +23434,7 @@
         <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.71507747034045</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1997994941144</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>107.300150479674</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.29152613728922</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>50.2915261372911</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23659,13 +23659,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>65.06136363537622</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>83.13405755535375</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>46.67206947362088</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>46.45968844823227</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,13 +24181,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>4.845153664069077</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24373,10 +24373,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>46.45968844822788</v>
       </c>
       <c r="S25" t="n">
-        <v>38.89198472948132</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>145.6085800303773</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>145.6085800303773</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>46.45968844823237</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>122.8084169651561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>65.54986409393004</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>111.1976478713725</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25318,10 +25318,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>125.5054897610409</v>
+        <v>46.45968844823042</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -25330,7 +25330,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,16 +25552,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228711</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25612,10 +25612,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>65.31997266427248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>125.5054897610401</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>30.48882721876659</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>45.44677382459241</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>205.0486432732471</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>914482.62393504</v>
+        <v>914482.6239350385</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>994871.655591822</v>
+        <v>994871.6555918223</v>
       </c>
     </row>
     <row r="7">
@@ -26314,16 +26314,16 @@
         <v>431046.9291787487</v>
       </c>
       <c r="C2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="D2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="E2" t="n">
-        <v>386954.4379713451</v>
+        <v>386954.4379713447</v>
       </c>
       <c r="F2" t="n">
-        <v>421406.8801099662</v>
+        <v>421406.8801099661</v>
       </c>
       <c r="G2" t="n">
         <v>423751.9648372533</v>
@@ -26332,28 +26332,28 @@
         <v>423751.9648372533</v>
       </c>
       <c r="I2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372533</v>
       </c>
       <c r="J2" t="n">
         <v>423751.9648372532</v>
       </c>
       <c r="K2" t="n">
-        <v>423751.964837253</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="L2" t="n">
+        <v>423751.9648372532</v>
+      </c>
+      <c r="M2" t="n">
+        <v>423751.9648372533</v>
+      </c>
+      <c r="N2" t="n">
+        <v>423751.9648372534</v>
+      </c>
+      <c r="O2" t="n">
+        <v>423751.9648372533</v>
+      </c>
+      <c r="P2" t="n">
         <v>423751.9648372531</v>
-      </c>
-      <c r="M2" t="n">
-        <v>423751.9648372532</v>
-      </c>
-      <c r="N2" t="n">
-        <v>423751.9648372532</v>
-      </c>
-      <c r="O2" t="n">
-        <v>423751.9648372531</v>
-      </c>
-      <c r="P2" t="n">
-        <v>423751.9648372532</v>
       </c>
     </row>
     <row r="3">
@@ -26363,28 +26363,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>3.359841684869025e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185176</v>
+        <v>143114.1392185145</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051363</v>
+        <v>166521.3471051394</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557863</v>
+        <v>11167.23623557874</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972775</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.150924617832061e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.32855115378</v>
+        <v>37377.32855115304</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848867</v>
+        <v>43782.40655848935</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224584</v>
+        <v>3023.297977224792</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316945</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316952</v>
+        <v>91573.95495316944</v>
       </c>
       <c r="D4" t="n">
         <v>91573.95495316942</v>
       </c>
       <c r="E4" t="n">
-        <v>12287.79922451209</v>
+        <v>12287.79922451208</v>
       </c>
       <c r="F4" t="n">
         <v>12380.38756059278</v>
@@ -26442,7 +26442,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181815</v>
+        <v>12386.92018181814</v>
       </c>
       <c r="L4" t="n">
         <v>12386.92018181813</v>
@@ -26454,7 +26454,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="O4" t="n">
-        <v>12386.92018181817</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="P4" t="n">
         <v>12386.92018181813</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214726</v>
+        <v>86093.72216214701</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1097205.712063407</v>
+        <v>-1097205.712063406</v>
       </c>
       <c r="C6" t="n">
-        <v>231539.0336641861</v>
+        <v>231539.0336641857</v>
       </c>
       <c r="D6" t="n">
-        <v>231539.0336641856</v>
+        <v>231539.033664186</v>
       </c>
       <c r="E6" t="n">
-        <v>145458.7773661682</v>
+        <v>145248.8131223263</v>
       </c>
       <c r="F6" t="n">
-        <v>142363.0169303988</v>
+        <v>142317.1119348299</v>
       </c>
       <c r="G6" t="n">
-        <v>299075.2785959495</v>
+        <v>299040.5406705136</v>
       </c>
       <c r="H6" t="n">
-        <v>310242.5148315281</v>
+        <v>310207.7769060921</v>
       </c>
       <c r="I6" t="n">
-        <v>310242.5148315275</v>
+        <v>310207.7769060924</v>
       </c>
       <c r="J6" t="n">
-        <v>92711.31243425045</v>
+        <v>92676.57450881474</v>
       </c>
       <c r="K6" t="n">
-        <v>310242.5148315281</v>
+        <v>310207.7769060922</v>
       </c>
       <c r="L6" t="n">
-        <v>310242.5148315277</v>
+        <v>310207.7769060922</v>
       </c>
       <c r="M6" t="n">
-        <v>272865.1862803741</v>
+        <v>272830.4483549393</v>
       </c>
       <c r="N6" t="n">
-        <v>266460.1082730393</v>
+        <v>266425.370347603</v>
       </c>
       <c r="O6" t="n">
-        <v>307219.2168543033</v>
+        <v>307184.4789288675</v>
       </c>
       <c r="P6" t="n">
-        <v>310242.5148315279</v>
+        <v>310207.7769060921</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26744,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494557</v>
+        <v>1212.170267494555</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26790,16 +26790,16 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086496</v>
+        <v>981.3883278086466</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26808,10 +26808,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26960,25 +26960,25 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>122.3935669012565</v>
+      </c>
+      <c r="F3" t="n">
+        <v>145.8707812218311</v>
+      </c>
+      <c r="G3" t="n">
+        <v>9.93445162528792</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="E3" t="n">
-        <v>122.3935669012592</v>
-      </c>
-      <c r="F3" t="n">
-        <v>145.8707812218283</v>
-      </c>
-      <c r="G3" t="n">
-        <v>9.934451625287693</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27015,16 +27015,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>149.986872406357</v>
+        <v>149.986872406354</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173569</v>
+        <v>178.7569625173603</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27039,16 +27039,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.986872406357</v>
+        <v>149.986872406354</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173569</v>
+        <v>178.7569625173603</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27261,16 +27261,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.986872406357</v>
+        <v>149.986872406354</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173569</v>
+        <v>178.7569625173603</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>290.244477142669</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>48.48521246509696</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,10 +27433,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>154.4560665103757</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>24.11964825229762</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>65.75137080161642</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27673,13 +27673,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>358.1678410074958</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>92.48952789514475</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>28.16312177370929</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,13 +27825,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,13 +27856,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>13.4513345552607</v>
+        <v>328.3173099230216</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>96.41917990352118</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>112.9481680013577</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.041087216435699e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28725,7 +28725,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.169834245014017e-12</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>-1.885306725550132e-12</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -29022,7 +29022,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>-9.831888791845538e-13</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-5.713224914889464e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29247,7 +29247,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>4.177991286269389e-12</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29457,7 +29457,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29499,7 +29499,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>2.262368070660159e-12</v>
       </c>
     </row>
     <row r="29">
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2.570807888177247e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485655</v>
+        <v>4.873046301485644</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508997</v>
+        <v>49.90608543508986</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380259</v>
+        <v>187.8681175380254</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307184</v>
+        <v>413.5937135307175</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726063</v>
+        <v>619.869763472605</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216981</v>
+        <v>769.0032542216964</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857436</v>
+        <v>855.6642913857416</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898398</v>
+        <v>869.5098341898378</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294417</v>
+        <v>821.0534800294399</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615145</v>
+        <v>700.7501494615129</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895593</v>
+        <v>526.2341787895582</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356985</v>
+        <v>306.1064947356978</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951045</v>
+        <v>111.0445425951042</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475346</v>
+        <v>21.33176018475342</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188523</v>
+        <v>0.3898437041188514</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969426</v>
+        <v>2.60730963196942</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191525</v>
+        <v>25.18112197191519</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596489</v>
+        <v>89.76921320596469</v>
       </c>
       <c r="J12" t="n">
-        <v>169.4599372430592</v>
+        <v>246.3335823783038</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202559</v>
+        <v>421.0233277202549</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256423</v>
+        <v>566.117821625641</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845338</v>
+        <v>219.8517740430797</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147148</v>
+        <v>678.1177801147132</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431816</v>
+        <v>620.3452877431803</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>497.8817840205465</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.820787407185</v>
+        <v>332.8207874071842</v>
       </c>
       <c r="R12" t="n">
-        <v>161.8819085533299</v>
+        <v>161.8819085533295</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697592</v>
+        <v>48.42963285697581</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780658</v>
+        <v>10.50928750780656</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190412</v>
+        <v>0.1715335284190408</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236087</v>
+        <v>2.185880810236082</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737177</v>
+        <v>19.43446756737173</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691798</v>
+        <v>65.73539745691784</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836914</v>
+        <v>154.541773283691</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619744</v>
+        <v>253.9596068619738</v>
       </c>
       <c r="L13" t="n">
-        <v>324.980861550918</v>
+        <v>324.9808615509172</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263713</v>
+        <v>342.6467528263705</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973098</v>
+        <v>334.499378897309</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050063</v>
+        <v>308.9643167050056</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761899</v>
+        <v>264.3723481761893</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916782</v>
+        <v>183.0377103916778</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570622</v>
+        <v>98.28514988570599</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929616</v>
+        <v>38.09394102929608</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826915</v>
+        <v>9.339672552826894</v>
       </c>
       <c r="U13" t="n">
-        <v>0.119229862376514</v>
+        <v>0.1192298623765137</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,16 +32072,16 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>574.9651909908048</v>
       </c>
       <c r="M15" t="n">
         <v>740.1323715504302</v>
@@ -32090,16 +32090,16 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
-        <v>261.3317718850178</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S15" t="n">
         <v>54.25758340862161</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>210.3948924365567</v>
       </c>
       <c r="N18" t="n">
-        <v>336.3457189021241</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>732.482598761492</v>
+        <v>338.1920576279218</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,46 +32622,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32792,16 +32792,16 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>357.9244589488883</v>
       </c>
       <c r="O24" t="n">
-        <v>198.560797075695</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214699</v>
@@ -32810,7 +32810,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33020,28 +33020,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>460.4622569139906</v>
       </c>
       <c r="L27" t="n">
-        <v>422.1299181110988</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.5996128485291</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>558.375963895806</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>301.6445156724557</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>270.97169333569</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>528.6300513467554</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>301.9817606876396</v>
+        <v>316.2462973459351</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,16 +33977,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181827</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>687.0167715190038</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709962</v>
       </c>
       <c r="O45" t="n">
-        <v>687.0167715190038</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040322</v>
+        <v>232.5478090040313</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276258</v>
+        <v>399.7799124276244</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517108</v>
+        <v>533.2368392517092</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584709</v>
+        <v>625.3180581584689</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932489</v>
+        <v>640.0967705932469</v>
       </c>
       <c r="O11" t="n">
-        <v>590.955268607755</v>
+        <v>590.9552686077532</v>
       </c>
       <c r="P11" t="n">
-        <v>469.517153706245</v>
+        <v>469.5171537062434</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151098</v>
+        <v>303.9284889151087</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156638</v>
+        <v>90.5209569215657</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>42.62231057639254</v>
+        <v>119.4959557116372</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458969</v>
+        <v>283.1818887458959</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457681</v>
+        <v>427.5634418457668</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625155</v>
+        <v>77.71774012106134</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313816</v>
+        <v>546.77606803138</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987372</v>
+        <v>477.7490432987358</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>363.9073766062163</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.8390133211635</v>
+        <v>192.8390133211627</v>
       </c>
       <c r="R12" t="n">
-        <v>16.2024045893659</v>
+        <v>16.20240458936553</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701858</v>
+        <v>61.18259316701821</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360916</v>
+        <v>231.690115036091</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112341</v>
+        <v>352.5708868112333</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882119</v>
+        <v>382.2306297882111</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765384</v>
+        <v>378.6315512765376</v>
       </c>
       <c r="O13" t="n">
-        <v>333.549444619046</v>
+        <v>333.5494446190453</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410834</v>
+        <v>261.6509074410828</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.8756671399838</v>
+        <v>96.87566713998338</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>436.4108112109305</v>
       </c>
       <c r="M15" t="n">
         <v>597.9983376284119</v>
@@ -35738,16 +35738,16 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
-        <v>118.7355274405734</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>68.26085851453838</v>
       </c>
       <c r="N18" t="n">
-        <v>205.0040068187907</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>590.3485648394736</v>
+        <v>196.0580237059035</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36440,16 +36440,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>226.582746865555</v>
       </c>
       <c r="O24" t="n">
-        <v>55.96455263125056</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071396</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,28 +36668,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>322.6208179396316</v>
       </c>
       <c r="L27" t="n">
-        <v>283.5755383312247</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625076</v>
@@ -36753,7 +36753,7 @@
         <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096353</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
         <v>394.3420143191315</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>416.2419299737876</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>159.0482712280113</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>397.2883392634221</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>161.9999866016181</v>
+        <v>176.2645232599136</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,16 +37625,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>544.4205270745593</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="O45" t="n">
-        <v>544.4205270745593</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
